--- a/Results/For Presentation/Graphs.xlsx
+++ b/Results/For Presentation/Graphs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>BSS</t>
   </si>
@@ -50,6 +50,15 @@
   <si>
     <t>Speed Mbs</t>
   </si>
+  <si>
+    <t>STA 1</t>
+  </si>
+  <si>
+    <t>STA 2</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
 </sst>
 </file>
 
@@ -73,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,12 +90,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1104,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D22" sqref="A19:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,6 +1281,114 @@
       </c>
       <c r="D16">
         <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1">
+        <v>80</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>92</v>
+      </c>
+      <c r="D26" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="1">
+        <v>92</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1">
+        <v>93</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Results/For Presentation/Graphs.xlsx
+++ b/Results/For Presentation/Graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="8595" windowHeight="9270"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="8595" windowHeight="9270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>BSS</t>
   </si>
@@ -58,6 +58,30 @@
   </si>
   <si>
     <t>AP</t>
+  </si>
+  <si>
+    <t>Meters</t>
+  </si>
+  <si>
+    <t>Packet Loss %</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>Distance(m)</t>
+  </si>
+  <si>
+    <t>Probability %</t>
   </si>
 </sst>
 </file>
@@ -691,6 +715,294 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="117993472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Probability loss packet vs Distance (m)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Probability %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$C$19:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$D$19:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.98E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.43E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27089999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3165</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.37609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.40229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.42909999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.46179999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="80799232"/>
+        <c:axId val="80859072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80799232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80859072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80859072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Probability to loss %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80799232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -834,6 +1146,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Диаграмма 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1131,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="A19:D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,13 +1746,455 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>2.98E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>5.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>8.43E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>0.1048</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>0.13669999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>0.16550000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>0.18959999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>0.21210000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>60</v>
+      </c>
+      <c r="D31">
+        <v>0.24379999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>65</v>
+      </c>
+      <c r="D32">
+        <v>0.27089999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>70</v>
+      </c>
+      <c r="D33">
+        <v>0.2898</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>75</v>
+      </c>
+      <c r="D34">
+        <v>0.3165</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>80</v>
+      </c>
+      <c r="D35">
+        <v>0.34229999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>85</v>
+      </c>
+      <c r="D36">
+        <v>0.37609999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>90</v>
+      </c>
+      <c r="D37">
+        <v>0.40229999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>95</v>
+      </c>
+      <c r="D38">
+        <v>0.42909999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>0.46179999999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
